--- a/fhom.xlsx
+++ b/fhom.xlsx
@@ -441,2502 +441,2502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>593801.1346088056</v>
+        <v>546025.5997353771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>494971.8594365871</v>
+        <v>455594.2596840235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>356620.3519843909</v>
+        <v>328898.884502984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>215236.2970547117</v>
+        <v>199163.9049068236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>123489.375519031</v>
+        <v>114435.6436695194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95034.79875688293</v>
+        <v>87674.66418011705</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94411.96355484109</v>
+        <v>86826.49080222429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93029.87652735233</v>
+        <v>85596.39272515912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85093.3800627227</v>
+        <v>78438.38332158998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74879.60007619257</v>
+        <v>69119.09450289496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66010.46524310135</v>
+        <v>60967.91474137069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59305.45418964788</v>
+        <v>54777.41798451271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>54286.57557472853</v>
+        <v>50131.01567061376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>50234.99508855261</v>
+        <v>46392.7200312927</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>46735.1682984674</v>
+        <v>43167.84162975244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43622.62299372086</v>
+        <v>40306.80329630072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40793.92846780999</v>
+        <v>37733.09482481144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>38273.14166199056</v>
+        <v>35386.78319125375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35995.61209344257</v>
+        <v>33290.79897074094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>33908.19147399016</v>
+        <v>31373.31057954987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>32005.60784115389</v>
+        <v>29628.07858662534</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30283.76200771073</v>
+        <v>28043.26256367216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>28688.18092776285</v>
+        <v>26581.57872247857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27217.65033557421</v>
+        <v>25230.27124361692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25867.73368523459</v>
+        <v>23975.0179090691</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24590.76182919058</v>
+        <v>22824.57178610468</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23424.9345459324</v>
+        <v>21747.09655603745</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>22321.80001419204</v>
+        <v>20739.15671826141</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>21288.31141898944</v>
+        <v>19785.81559186204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20303.93422672633</v>
+        <v>18898.98393116048</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>19402.41756222855</v>
+        <v>18059.06384019856</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18531.76420640932</v>
+        <v>17263.45637294974</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17732.59281127913</v>
+        <v>16519.70177845531</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16936.57349951244</v>
+        <v>15806.07481611107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16188.41040744916</v>
+        <v>15140.70054087026</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15505.54387845247</v>
+        <v>14500.26262527978</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14811.76069796462</v>
+        <v>13904.58768626151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14200.06767873928</v>
+        <v>13306.97156507466</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13584.24551782827</v>
+        <v>12755.24216273926</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13015.46834126333</v>
+        <v>12219.06844222496</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12459.76186258682</v>
+        <v>11714.63355780978</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11898.6621549213</v>
+        <v>11240.2265212476</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11415.04181925312</v>
+        <v>10762.52434866704</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10925.28334072005</v>
+        <v>10316.1345775222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10420.44392299498</v>
+        <v>9902.013394177649</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10001.18028373953</v>
+        <v>9474.03161361443</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9563.53835119028</v>
+        <v>9078.052440332554</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9133.17966884204</v>
+        <v>8706.201200119163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8735.824513198924</v>
+        <v>8332.434102194842</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8350.824877342828</v>
+        <v>7977.591519398117</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7978.250465966849</v>
+        <v>7636.083616756331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7604.877430767393</v>
+        <v>7318.933924465376</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7259.082398138372</v>
+        <v>7000.627950840981</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6927.208627407083</v>
+        <v>6690.383242604516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6604.409424695446</v>
+        <v>6394.791647311836</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6289.660311962479</v>
+        <v>6110.764713440665</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5999.200942891073</v>
+        <v>5817.890233698618</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5689.672232632916</v>
+        <v>5575.781964265525</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5409.587002078237</v>
+        <v>5318.222207429631</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5138.564464185216</v>
+        <v>5074.493282531606</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4873.379466336633</v>
+        <v>4835.905455480196</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4615.552666843046</v>
+        <v>4608.162881725557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4372.977365539268</v>
+        <v>4395.317176600136</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4132.694282917327</v>
+        <v>4176.292643816111</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3903.574564895354</v>
+        <v>3971.767912779456</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3683.098406806252</v>
+        <v>3775.743486889953</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3468.167851472563</v>
+        <v>3586.481646942174</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3264.432441867276</v>
+        <v>3404.782713647765</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3064.665657714257</v>
+        <v>3231.51765019886</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2890.796353672176</v>
+        <v>3035.300392227653</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2692.728698292228</v>
+        <v>2903.053039025239</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2519.337281138479</v>
+        <v>2750.539495348245</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2351.166096121583</v>
+        <v>2603.814871313368</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2190.589084097744</v>
+        <v>2463.976282054199</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2038.450600358703</v>
+        <v>2333.548123316049</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1894.251575753443</v>
+        <v>2207.920538572255</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1757.312149628681</v>
+        <v>2090.520694530715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1626.365984262664</v>
+        <v>1985.430334615712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1503.410468784404</v>
+        <v>1881.571198363205</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1398.078873647795</v>
+        <v>1781.030252445654</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1297.656176083733</v>
+        <v>1692.610495947883</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1207.219703749328</v>
+        <v>1613.118607842622</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1126.962049208844</v>
+        <v>1538.832924825284</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1055.819001834322</v>
+        <v>1475.031335096851</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1002.044523313043</v>
+        <v>1415.85176911321</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>958.4460121786574</v>
+        <v>1364.924114985369</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>928.4053522534067</v>
+        <v>1323.091998467553</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>909.8903702388153</v>
+        <v>1288.113593684522</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>903.9002668987823</v>
+        <v>1255.484972391257</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>910.8932196086804</v>
+        <v>1228.517761829149</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>921.969852383716</v>
+        <v>1222.117522263025</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>942.3719352821529</v>
+        <v>1213.680283065014</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>970.1174580204116</v>
+        <v>1210.223796853994</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1002.007387936536</v>
+        <v>1210.437473769997</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1037.016159026262</v>
+        <v>1214.186205676218</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1073.412721884103</v>
+        <v>1221.02156687673</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1112.583592205666</v>
+        <v>1229.927230061921</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1152.870149589136</v>
+        <v>1244.21135139543</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1191.751713601044</v>
+        <v>1259.199396868305</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1232.309057703035</v>
+        <v>1273.404927203093</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1271.16346640816</v>
+        <v>1289.257384694473</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1308.955734068284</v>
+        <v>1306.220697875308</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1343.87655900869</v>
+        <v>1324.066484239923</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1381.423791238465</v>
+        <v>1336.06996642076</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1416.919618142416</v>
+        <v>1349.214941544469</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1446.566186487394</v>
+        <v>1370.410521153634</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1475.432777950644</v>
+        <v>1388.462212902013</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1503.218884818057</v>
+        <v>1403.176566312264</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1528.705444671047</v>
+        <v>1417.523522466173</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1553.885055555363</v>
+        <v>1430.107619521384</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1574.508835537421</v>
+        <v>1440.028857699121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1596.294225187674</v>
+        <v>1453.155908700997</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1616.037688833117</v>
+        <v>1462.113079643535</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1630.777490423333</v>
+        <v>1473.956449051367</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1648.029676936054</v>
+        <v>1477.644505375676</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1660.675102302808</v>
+        <v>1483.951593165523</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1672.408994040333</v>
+        <v>1488.823651658364</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1681.988429509434</v>
+        <v>1493.887501789849</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1689.628269665225</v>
+        <v>1494.968124980532</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1696.092450057619</v>
+        <v>1495.702934151275</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1700.01172777744</v>
+        <v>1495.691107446856</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1703.29736183471</v>
+        <v>1494.630286601569</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1704.533562280579</v>
+        <v>1491.775684641481</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1707.251716886655</v>
+        <v>1487.022909918566</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1723.211323169477</v>
+        <v>1502.117235064702</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1710.670362427441</v>
+        <v>1499.001335043752</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1688.583342390151</v>
+        <v>1469.479518898847</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1689.732590759249</v>
+        <v>1462.221294230388</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1683.065895133147</v>
+        <v>1454.062705149106</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1674.264920377607</v>
+        <v>1444.492966017262</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1665.312532825607</v>
+        <v>1432.968839848007</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1653.448213962523</v>
+        <v>1421.358307760471</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1642.914079019753</v>
+        <v>1408.231898942505</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1630.483836055306</v>
+        <v>1394.748180707788</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1616.440068566874</v>
+        <v>1378.492731273503</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1601.820051101363</v>
+        <v>1364.921454154415</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1585.998153329518</v>
+        <v>1349.257302180535</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1569.552064834141</v>
+        <v>1332.441587280721</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1548.84004787929</v>
+        <v>1313.010160839189</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1540.575919260875</v>
+        <v>1301.400447767993</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1515.672358408643</v>
+        <v>1278.743399714781</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1496.942466914412</v>
+        <v>1259.883632878972</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1476.986052030921</v>
+        <v>1240.004391517865</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1455.625613568944</v>
+        <v>1220.590904125687</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1428.874471633128</v>
+        <v>1196.727737472273</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1413.430231099025</v>
+        <v>1179.363242992074</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1391.787279452766</v>
+        <v>1158.128685719553</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1371.196310189142</v>
+        <v>1138.285700424402</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1347.001632195722</v>
+        <v>1115.537684110958</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1324.383021041581</v>
+        <v>1093.776244170195</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1300.508188252159</v>
+        <v>1071.340271016471</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1277.847776833099</v>
+        <v>1049.41828396115</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1254.674317164051</v>
+        <v>1027.411937478868</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1230.863021079828</v>
+        <v>1004.821690786052</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1208.107977991101</v>
+        <v>983.1460902178529</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1196.113531903229</v>
+        <v>970.3086216132571</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1118.591641558488</v>
+        <v>904.5830297773615</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1138.369707922561</v>
+        <v>917.2752843429132</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1120.061980593531</v>
+        <v>899.3184532967159</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1090.752521718314</v>
+        <v>872.4956629528815</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1069.123205716133</v>
+        <v>852.0459228190347</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1046.826319086512</v>
+        <v>831.0448973604929</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1024.185014946693</v>
+        <v>809.9144412504664</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1003.58858483598</v>
+        <v>790.4832384788403</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>981.9143816712478</v>
+        <v>770.2707031836196</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>961.2985756021362</v>
+        <v>751.098246491392</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>941.2023025982132</v>
+        <v>732.3630942458121</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>922.31018549869</v>
+        <v>714.8851163489818</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>903.0324660452409</v>
+        <v>697.0048129585791</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>884.5780731248962</v>
+        <v>680.0683269820649</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>868.6949042510162</v>
+        <v>665.4316102146669</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>850.8952993820111</v>
+        <v>649.6412474262009</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>833.8857220383569</v>
+        <v>634.4819178623426</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>818.652589082956</v>
+        <v>620.7086258820708</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>803.9223709941457</v>
+        <v>607.8938065569019</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>789.7285329424329</v>
+        <v>596.2349327539149</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>777.5550698432119</v>
+        <v>585.3851837245123</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>765.9425290962777</v>
+        <v>575.739443176525</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>758.6128752992192</v>
+        <v>568.138326026855</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>741.4540231590439</v>
+        <v>554.2927781164457</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>734.5914886402667</v>
+        <v>551.4049836120552</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>726.7699147493958</v>
+        <v>545.714164253598</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>719.0140801279153</v>
+        <v>540.8785612907329</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>712.4945781953076</v>
+        <v>536.6827298637555</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>707.4366133805819</v>
+        <v>532.8936479043838</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>701.7789490644092</v>
+        <v>531.4619494918669</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>697.506609202907</v>
+        <v>529.8814009166084</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>694.1247821564177</v>
+        <v>527.9922023170981</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>692.7365055594951</v>
+        <v>528.6140529891866</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>689.2474015491402</v>
+        <v>530.1406262823078</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>687.9823202574914</v>
+        <v>531.7982049372118</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>687.1524884384702</v>
+        <v>533.3257499426842</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>686.5465087869126</v>
+        <v>536.4485279408683</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>687.1851092709601</v>
+        <v>538.9428519769453</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>687.8152082514325</v>
+        <v>542.6155681873533</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>688.881035033528</v>
+        <v>545.5756259248612</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>690.0251710503965</v>
+        <v>550.0076201062833</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>691.8308973483797</v>
+        <v>554.1363722852484</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>693.80207576725</v>
+        <v>558.7246075713665</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>695.6850121720973</v>
+        <v>562.7826992301326</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>698.2446185035869</v>
+        <v>567.8469811036992</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>701.1082283779975</v>
+        <v>572.7419979466939</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>703.3895840471886</v>
+        <v>577.2588751423714</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>705.8096833851448</v>
+        <v>581.8506219577555</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>708.4101976938468</v>
+        <v>586.6970281769387</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>713.1365271223729</v>
+        <v>591.7220190358411</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>705.0299149572804</v>
+        <v>589.5053146392115</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>737.3694972642141</v>
+        <v>616.7640600452353</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>666.3860173267134</v>
+        <v>576.12220625615</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>752.1513730995114</v>
+        <v>628.2447246940349</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>702.4303764436723</v>
+        <v>600.4045123293757</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>731.2229712769321</v>
+        <v>618.7531992631533</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>724.4286112894445</v>
+        <v>616.0797979535048</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>727.4269090899597</v>
+        <v>620.6408816785328</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>728.8306573836485</v>
+        <v>623.0295945225408</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>729.3674082751652</v>
+        <v>625.1552903632984</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>730.2291295459312</v>
+        <v>627.2525231463469</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>730.6958599113235</v>
+        <v>628.9749515339612</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>730.7805592080979</v>
+        <v>630.5323393282397</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>729.9435749071309</v>
+        <v>631.8622158763807</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>730.0386813970371</v>
+        <v>632.3770295971378</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>729.349450220381</v>
+        <v>632.9044340849748</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>727.882237737197</v>
+        <v>632.6338313892231</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>727.1182312881017</v>
+        <v>632.967062208464</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>725.1632840262339</v>
+        <v>632.0238696241469</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>723.2368339481471</v>
+        <v>631.1157845962124</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>720.4077195065054</v>
+        <v>630.0757658415522</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>716.9239282200474</v>
+        <v>629.3986756509265</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>713.9131979389721</v>
+        <v>626.6746319121733</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>711.6545865448657</v>
+        <v>624.7593082214245</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>707.8867479992078</v>
+        <v>622.2867556800926</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>703.9743466556939</v>
+        <v>619.4659033241744</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>699.8239187353016</v>
+        <v>616.2663109124608</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>695.135915551999</v>
+        <v>612.8109577435405</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>688.8852963921322</v>
+        <v>607.0342264817931</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>684.7764091176261</v>
+        <v>607.6950665626807</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>679.8621995917845</v>
+        <v>601.1310972501342</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>674.0071369743904</v>
+        <v>596.4174148274238</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>668.0642282948663</v>
+        <v>591.4795379424696</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>661.7020245739477</v>
+        <v>586.3939068633882</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>655.1666957814542</v>
+        <v>580.8666465635113</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>648.0971821315273</v>
+        <v>574.4021039154582</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>641.2170040527734</v>
+        <v>569.5991734457831</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>633.9854755966287</v>
+        <v>563.6466609618092</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>626.2219791347843</v>
+        <v>557.0971564544722</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>618.5168747864934</v>
+        <v>550.8962003261454</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>610.5528230543915</v>
+        <v>543.5695461559549</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>602.4749027847975</v>
+        <v>536.5418351297584</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>594.0419360445103</v>
+        <v>529.8376641052712</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>584.7647913217234</v>
+        <v>522.5301758592352</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>564.2519609155767</v>
+        <v>506.0182906420428</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>560.9915793151631</v>
+        <v>499.510950071856</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>559.2188046564164</v>
+        <v>499.274330725795</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>549.1856232906728</v>
+        <v>490.9879228038469</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>539.7598621292091</v>
+        <v>482.722999575401</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>530.4256014166455</v>
+        <v>474.4509730352852</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>519.8891949501856</v>
+        <v>465.8513061512235</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>510.6591757504848</v>
+        <v>457.4340631447094</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>500.9676386355815</v>
+        <v>448.6845844485929</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>490.873971859318</v>
+        <v>440.1122607975273</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>480.4034241032098</v>
+        <v>431.0100703687472</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>468.6948473003302</v>
+        <v>420.3590220887843</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>460.1242804970779</v>
+        <v>413.0088695104856</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>449.6444999119338</v>
+        <v>403.8364399492937</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>439.1778713625871</v>
+        <v>394.632886085509</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>428.9281150287328</v>
+        <v>385.4719778966696</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>418.305991197802</v>
+        <v>376.1961796719744</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>407.8232947334711</v>
+        <v>366.8397417487974</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>395.1479571689447</v>
+        <v>355.5096584865605</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>384.7454219346556</v>
+        <v>346.403039117676</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>376.1177297418352</v>
+        <v>338.747281468093</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>365.7121387940651</v>
+        <v>329.4954206024177</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>355.1403611403201</v>
+        <v>320.1407226827789</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>344.7632774197075</v>
+        <v>310.887300777783</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>334.6545323513548</v>
+        <v>301.9211996085922</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>323.7721167079516</v>
+        <v>292.2147670609393</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>313.455893543097</v>
+        <v>282.9086959100042</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>303.1619821448558</v>
+        <v>273.7671199759034</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>293.1270628627693</v>
+        <v>265.0615001148595</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>282.6653470756689</v>
+        <v>255.2386322274445</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>272.5803032575731</v>
+        <v>246.4038912051426</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>262.4742575657258</v>
+        <v>237.3708921576608</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>252.3195385783621</v>
+        <v>228.2651421974275</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>242.8166412191382</v>
+        <v>219.719580309927</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>232.9062550623201</v>
+        <v>210.817991532387</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>223.0428103048878</v>
+        <v>202.3393189588038</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>213.943352013101</v>
+        <v>193.7493838648589</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>204.5693569969553</v>
+        <v>185.1996680076541</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>195.3225790093441</v>
+        <v>177.0110239782453</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>185.8773315985734</v>
+        <v>168.3237099151338</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>177.2921021053953</v>
+        <v>160.7069265423295</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>168.5705151057249</v>
+        <v>152.8420452702026</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>159.9978098050938</v>
+        <v>145.1004916416901</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>151.4104352916756</v>
+        <v>137.3302255554149</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>143.2166785158372</v>
+        <v>129.9231687485902</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>135.2141713547816</v>
+        <v>122.3506372002781</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>127.3148395829526</v>
+        <v>115.3704822614586</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>119.6625306451358</v>
+        <v>108.5343309070595</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>112.2023835534677</v>
+        <v>101.6764560940999</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>105.0661019203938</v>
+        <v>95.09197429414823</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>98.08897142034336</v>
+        <v>88.77413733215386</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>91.43383247979413</v>
+        <v>82.65557881494203</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>85.10710605742133</v>
+        <v>76.76369911893747</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>79.09514138526869</v>
+        <v>71.17692507034779</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>73.41210668708871</v>
+        <v>65.87878142701585</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>68.14509924747789</v>
+        <v>60.90896351067995</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>63.34252465485252</v>
+        <v>56.3507154788003</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>59.09837414016898</v>
+        <v>52.28240819018743</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>55.18290958014308</v>
+        <v>48.64413090321469</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>51.26472676012281</v>
+        <v>44.76786215517922</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>50.83368656510702</v>
+        <v>43.72875450289966</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>46.63734512977123</v>
+        <v>41.2676323573637</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>45.19225031370993</v>
+        <v>37.213835581107</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>50.01915223975949</v>
+        <v>43.18126048434357</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>39.15547358225447</v>
+        <v>33.46034863445676</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>49.83148091774734</v>
+        <v>42.15518177049807</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>46.96462457571957</v>
+        <v>40.58466111351921</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>48.71537337824264</v>
+        <v>41.69867508596789</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>51.4988557353517</v>
+        <v>44.38436008484168</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>53.22032281027709</v>
+        <v>46.12734849269358</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>55.44373499556009</v>
+        <v>48.26837701605576</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>57.8627599946019</v>
+        <v>50.62092323743557</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>60.29930007228983</v>
+        <v>52.99162164107062</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>62.79969773415151</v>
+        <v>55.33568000764853</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>65.22544391888613</v>
+        <v>57.72759885468811</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>67.6471168653066</v>
+        <v>60.07888105273313</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>70.00846526398414</v>
+        <v>62.3785455304685</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>72.27568183362314</v>
+        <v>64.6161913281973</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>74.53473475616985</v>
+        <v>66.80668594646475</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>76.59052761209209</v>
+        <v>68.84093058650349</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>78.60942400180184</v>
+        <v>70.81949730440125</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>80.52532209257087</v>
+        <v>72.70031884705395</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>82.29913438054042</v>
+        <v>74.50861902460306</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>83.99043782032375</v>
+        <v>76.17104165467836</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>85.71108359701336</v>
+        <v>77.75194468910453</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>87.01689540762668</v>
+        <v>79.26035978221533</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>88.30478979946548</v>
+        <v>80.59618704073841</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>89.43389924383435</v>
+        <v>82.03403183019513</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>90.60665729443811</v>
+        <v>83.03611245175409</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>91.60820559857633</v>
+        <v>84.07539642649007</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>92.4597402519196</v>
+        <v>85.04273782175052</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>93.10263111132301</v>
+        <v>85.89285684982883</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>93.69767603949413</v>
+        <v>86.84176667220088</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>94.30932304185376</v>
+        <v>87.25718305497121</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>94.7034486630204</v>
+        <v>87.80755618238219</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>95.00497570150478</v>
+        <v>88.26374180124324</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>95.1820126159553</v>
+        <v>88.62305582937037</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>95.29624826649452</v>
+        <v>88.86017759272239</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>95.02743479671719</v>
+        <v>89.47959728990669</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>95.14151085930456</v>
+        <v>89.08241782609102</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>94.91734460118211</v>
+        <v>89.16331778739828</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>94.55015190288387</v>
+        <v>89.06544718686402</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>94.24412430938956</v>
+        <v>88.8921983666655</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>93.7258049137625</v>
+        <v>88.68884582522962</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>93.22882949928399</v>
+        <v>88.40292558626228</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>92.54578425247826</v>
+        <v>87.9924498564162</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>91.84232610775804</v>
+        <v>87.52337283755618</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>91.12050151890611</v>
+        <v>86.89528524026855</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>90.91079154651632</v>
+        <v>86.39682674898754</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>89.44055503021087</v>
+        <v>85.95996706100999</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>88.27913472129985</v>
+        <v>85.16820018132717</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>87.20319611619053</v>
+        <v>84.41960854336801</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>86.10562572399213</v>
+        <v>83.65103080254184</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>84.96413594648334</v>
+        <v>82.73922075064007</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>83.75181844516618</v>
+        <v>81.89409126689374</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>82.55526173206827</v>
+        <v>80.94619626012474</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>81.29427467832279</v>
+        <v>79.97809165522784</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>79.87258373450749</v>
+        <v>79.06035373698981</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>78.50094636560972</v>
+        <v>78.04712620594607</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>77.14040008504575</v>
+        <v>77.0112132416441</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>75.66313771043363</v>
+        <v>75.91406661749033</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>74.22383427978983</v>
+        <v>74.81778578053689</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>72.75419803331609</v>
+        <v>73.6829339101789</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>71.25122557339317</v>
+        <v>72.57184642076672</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>69.78376433874421</v>
+        <v>71.36500939419393</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>67.66728170305394</v>
+        <v>70.03045200365786</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>66.0658646464162</v>
+        <v>70.01180457880537</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>65.45714630875128</v>
+        <v>68.515521515947</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>63.68072931759556</v>
+        <v>66.65296169807598</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>62.09108473733428</v>
+        <v>65.55001543215884</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>60.54185558418429</v>
+        <v>64.36871790027952</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>59.03308707431907</v>
+        <v>63.18130588402052</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>57.5279385003946</v>
+        <v>61.99764193395965</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>56.11115665064401</v>
+        <v>60.90147911016956</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>54.57798970458995</v>
+        <v>59.68040421486694</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>53.11979760556596</v>
+        <v>58.56580909207958</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>51.67668532479407</v>
+        <v>57.50282941895976</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>50.29225934698529</v>
+        <v>56.33084248464326</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>48.91551680222633</v>
+        <v>55.25504272511436</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>47.61905783298035</v>
+        <v>54.1890826790078</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>46.30175589568517</v>
+        <v>53.11670127402679</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>45.13050811694327</v>
+        <v>52.15903924274134</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>43.6195848692775</v>
+        <v>51.3693709630889</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>42.66343285294828</v>
+        <v>50.14908283244646</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>41.58314461103942</v>
+        <v>49.21404425428057</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>40.51825475230691</v>
+        <v>48.28819654142458</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.48573017085353</v>
+        <v>47.44464366849643</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>38.57670537377754</v>
+        <v>46.55474760331385</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>37.67554858236449</v>
+        <v>45.72668154456657</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>36.69618578356476</v>
+        <v>44.79569497300011</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>36.06169653522752</v>
+        <v>44.19452893317609</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>35.35214642199804</v>
+        <v>43.44532616431607</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>34.69455478483148</v>
+        <v>42.75987840138291</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>34.08327258874141</v>
+        <v>42.07460955000298</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>33.57424597006395</v>
+        <v>41.46394444617487</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>33.10329165884855</v>
+        <v>40.86278618164275</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>32.6875264278532</v>
+        <v>40.31507258529669</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>32.31874146735201</v>
+        <v>39.75387468753064</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>32.01079814833857</v>
+        <v>39.23491222068441</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>31.76341581074144</v>
+        <v>38.72884426193835</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>31.5567343186255</v>
+        <v>38.25267639151308</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>31.37992451059823</v>
+        <v>37.8262028874675</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>31.24744839924601</v>
+        <v>37.38676821918092</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>31.15330301665055</v>
+        <v>37.01068603604192</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>31.1292776090617</v>
+        <v>36.61806552905238</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>30.87575094942505</v>
+        <v>36.03828069754709</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>31.34117544258435</v>
+        <v>36.59166264043172</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>31.01152274637068</v>
+        <v>33.97000170138146</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>31.49620463608083</v>
+        <v>36.71569739096988</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>31.32107571665345</v>
+        <v>33.80068975844311</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>30.93942665552225</v>
+        <v>34.90842473670287</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>31.34823017956749</v>
+        <v>34.28983800592113</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>31.24961630124015</v>
+        <v>33.93519023666008</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>31.33158808614896</v>
+        <v>33.67521659068254</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>31.39369976142765</v>
+        <v>33.38089744951</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>31.43303433592153</v>
+        <v>33.07044794114889</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>31.47486216908547</v>
+        <v>32.77406472124006</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>31.50371621302233</v>
+        <v>32.46722651422161</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>31.53163899522852</v>
+        <v>32.1655421297563</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>31.5507841880653</v>
+        <v>31.89137105645955</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>31.53059404498377</v>
+        <v>31.53749919142567</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>31.44046102625366</v>
+        <v>31.16821735441617</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>31.47224386095026</v>
+        <v>30.88862382238974</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>31.41564299677267</v>
+        <v>30.54833794351421</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>31.35270037197291</v>
+        <v>30.27607114342093</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>31.24453029323521</v>
+        <v>29.84112856176608</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>31.11101305393654</v>
+        <v>29.49509900620522</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>31.0156447012613</v>
+        <v>29.11298359562512</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>30.86764596735812</v>
+        <v>28.70249454642827</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>30.51411020482896</v>
+        <v>28.43033214398796</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>30.48978921513124</v>
+        <v>27.90541097367479</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>30.27249257754378</v>
+        <v>27.48853975524476</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>30.03203320453418</v>
+        <v>27.05604811191673</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>29.78753021934985</v>
+        <v>26.61956476941245</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>29.51129785136622</v>
+        <v>26.14513631154172</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>29.18659512723769</v>
+        <v>25.69910361305965</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>28.8789613420535</v>
+        <v>25.2111308801632</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>28.5589353399404</v>
+        <v>24.64555054952676</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>28.03639161857026</v>
+        <v>24.16542587967663</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>27.77607486927059</v>
+        <v>23.7076727848357</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>27.41928594080675</v>
+        <v>23.19134626293473</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>27.00502886683725</v>
+        <v>22.66838232219001</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>26.58271530658684</v>
+        <v>22.12807199475165</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>26.15822350585584</v>
+        <v>21.57213052252963</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>25.66772665390611</v>
+        <v>21.02480556314936</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>25.19064313624391</v>
+        <v>20.46820244482445</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>24.75383040498162</v>
+        <v>19.94847173579028</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>24.18868868865785</v>
+        <v>19.32673048818779</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>23.67609580549893</v>
+        <v>18.74722241418281</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>23.14000849436302</v>
+        <v>18.16909728064101</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>22.62976852489023</v>
+        <v>17.58945995125977</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>22.04230345617894</v>
+        <v>16.99050971157437</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>21.49464085282894</v>
+        <v>16.40056416594638</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>20.89571936232044</v>
+        <v>15.81414034269902</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>20.31047747483835</v>
+        <v>15.22277029944598</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>19.72582020256486</v>
+        <v>14.63674364616798</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>19.12785508868017</v>
+        <v>14.0495489525317</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>18.52716108294949</v>
+        <v>13.47288064785145</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>17.9125288027829</v>
+        <v>12.8896904324382</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>17.27416064410574</v>
+        <v>12.39209770067652</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>17.07321640632332</v>
+        <v>11.94308021965662</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>15.64103814927438</v>
+        <v>10.9574124492535</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>15.53610940571652</v>
+        <v>10.83029140359159</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>14.84003800794778</v>
+        <v>10.20411028495234</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>14.24729636161216</v>
+        <v>9.741886664979592</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>13.63758072852916</v>
+        <v>9.282962531242282</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>13.03674204352531</v>
+        <v>8.854047478221483</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>12.43596486242501</v>
+        <v>8.459704774597446</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>11.85481055111279</v>
+        <v>8.110469425548533</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>11.27592955595224</v>
+        <v>7.789981302825766</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>10.7193319677521</v>
+        <v>7.522658250993408</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>10.16080614246679</v>
+        <v>7.311732831522269</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>9.633548466879725</v>
+        <v>7.161727548715645</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>9.125773215471192</v>
+        <v>7.051357166263268</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>8.633389942553016</v>
+        <v>7.009041979878661</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>8.172974071355284</v>
+        <v>7.024549290043994</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>7.745167069495953</v>
+        <v>7.094027826293487</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>7.356072286963681</v>
+        <v>7.23108346057239</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>7.021025488337195</v>
+        <v>7.397720522863422</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>6.694847376372044</v>
+        <v>7.596337037801012</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>6.43427282612888</v>
+        <v>7.842817290818319</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>6.233760691293355</v>
+        <v>8.120606726522649</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>6.095461390900687</v>
+        <v>8.418700045350567</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>6.01869084800969</v>
+        <v>8.74120878424209</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>5.98860553433656</v>
+        <v>9.087825908796951</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>6.01178878837729</v>
+        <v>9.441266735960044</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>6.109423971228014</v>
+        <v>9.798689531593606</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>6.243649261248867</v>
+        <v>10.16832906325793</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>6.423067106783087</v>
+        <v>10.53767116016939</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>6.636498814709873</v>
+        <v>10.91280376332966</v>
       </c>
     </row>
   </sheetData>
